--- a/statics/MAPA_FINAL_2023_INTEGRAL.xlsx
+++ b/statics/MAPA_FINAL_2023_INTEGRAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f28ae49758e922e1/Desktop/devbook/editabletable/statics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="8_{9535D521-E866-4080-AFD6-CDCF7E608608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7555F491-4E70-4F51-8DED-6E9F95FAE697}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{9535D521-E866-4080-AFD6-CDCF7E608608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C97DF75-1FD8-4577-8761-1255DFC01C5E}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{BCAD9878-E9D0-420E-8A55-493979D05A8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{BCAD9878-E9D0-420E-8A55-493979D05A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="con" sheetId="1" r:id="rId1"/>
@@ -836,8 +836,8 @@
   <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="4" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +933,7 @@
       <c r="U3" s="24"/>
       <c r="V3" s="24"/>
     </row>
-    <row r="4" spans="1:22" ht="186.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="177.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="9" t="s">
         <v>10</v>
@@ -4042,8 +4042,15 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="5" manualBreakCount="5">
+    <brk id="25" max="16383" man="1"/>
+    <brk id="46" max="16383" man="1"/>
+    <brk id="67" max="16383" man="1"/>
+    <brk id="88" max="16383" man="1"/>
+    <brk id="109" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>